--- a/poc/Smoothing+Techniques_Calculations_IceCream.xlsx
+++ b/poc/Smoothing+Techniques_Calculations_IceCream.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deval.purohit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\time_series_forecasting\poc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE295C6-283E-4971-98C7-657D4752B527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75D2639-9726-4CB1-B7FD-C536C72414AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{916E4900-C788-4667-BF10-2AC295B97E46}"/>
+    <workbookView minimized="1" xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" activeTab="6" xr2:uid="{916E4900-C788-4667-BF10-2AC295B97E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -223,16 +223,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1477,34 +1474,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110.4</c:v>
+                  <c:v>114.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.52000000000001</c:v>
+                  <c:v>116.255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>143.45600000000002</c:v>
+                  <c:v>158.87899999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169.75680000000003</c:v>
+                  <c:v>190.24564999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.63904000000002</c:v>
+                  <c:v>164.13319999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164.21811200000002</c:v>
+                  <c:v>166.50611149999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>206.05999360000004</c:v>
+                  <c:v>225.61328809999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>242.39639808000007</c:v>
+                  <c:v>268.62060870499994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4543,6 +4540,143 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>564283</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>172727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6E8E88-0884-F5FB-D6A6-98ECCB90B52B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4587643" y="919487"/>
+          <a:ext cx="3459078" cy="561392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571785</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>150389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCC2384-39F6-A143-FC8D-EA48047B1C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4595145" y="1526099"/>
+          <a:ext cx="2148556" cy="666450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571773</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6E897E-DDBB-B446-2EFD-545996E298ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4595133" y="2238738"/>
+          <a:ext cx="2666728" cy="399366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4584,7 +4718,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4926,117 +5060,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97286E30-826E-481E-9E5F-79E09CD2A1EF}">
   <dimension ref="B5:C18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>42736</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>42826</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>42917</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
         <v>43009</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>43101</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>43191</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
         <v>43282</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
         <v>43374</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
         <v>43466</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
         <v>43556</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
         <v>43647</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12">
         <v>43739</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>176</v>
       </c>
     </row>
@@ -5051,225 +5185,225 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>42736</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>80</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f>C7</f>
         <v>80</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>42826</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>130</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <f>$C$2*C8+(1-$C$2)*D7</f>
         <v>90</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <f>D7</f>
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>42917</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>140</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <f t="shared" ref="D9:D18" si="0">$C$2*C9+(1-$C$2)*D8</f>
         <v>100</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <f>D8</f>
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
         <v>43009</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>90</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <f t="shared" ref="E10:E18" si="1">D9</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>43101</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>112</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>100.80000000000001</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>43191</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>182</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>117.04000000000002</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>100.80000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
         <v>43282</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>196</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>132.83200000000002</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>117.04000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
         <v>43374</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>126</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>131.46560000000002</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>132.83200000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
         <v>43466</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>157</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>136.57248000000001</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>131.46560000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
         <v>43556</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>255</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>160.25798400000002</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>136.57248000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
         <v>43647</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>274</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>183.00638720000003</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>160.25798400000002</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12">
         <v>43739</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>176</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>181.60510976000006</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>183.00638720000003</v>
       </c>
@@ -5285,7 +5419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5297,284 +5431,284 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>0.2</v>
+      <c r="C3" s="4">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>42736</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>80</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f>C7</f>
         <v>80</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>42826</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>130</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <f>$C$2*C8+(1-$C$2)*(D7+E7)</f>
+        <v>95</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:E18" si="0">$C$3*(C8-C7)+(1-$C$3)*E7</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>42917</v>
+      </c>
+      <c r="C9">
+        <v>140</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:D18" si="1">$C$2*C9+(1-$C$2)*(D8+E8)</f>
+        <v>119</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F18" si="2">D8+E8</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>43009</v>
+      </c>
+      <c r="C10">
         <v>90</v>
       </c>
-      <c r="E8" s="8">
-        <f t="shared" ref="E8:E18" si="0">$C$3*(C8-C7)+(1-$C$3)*E7</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>119.75</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.5500000000000007</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>132.5</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
-        <v>42917</v>
-      </c>
-      <c r="C9" s="7">
-        <v>140</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D18" si="1">$C$2*C9+(1-$C$2)*(D8+E8)</f>
-        <v>108</v>
-      </c>
-      <c r="E9" s="8">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>43101</v>
+      </c>
+      <c r="C11">
+        <v>112</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>113.53999999999999</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" ref="F9:F18" si="2">D8+E8</f>
-        <v>100</v>
+        <v>2.7149999999999994</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>114.2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
-        <v>43009</v>
-      </c>
-      <c r="C10" s="7">
-        <v>90</v>
-      </c>
-      <c r="D10" s="8">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>43191</v>
+      </c>
+      <c r="C12">
+        <v>182</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>112.4</v>
-      </c>
-      <c r="E10" s="8">
+        <v>135.9785</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F10" s="10">
+        <v>22.900500000000001</v>
+      </c>
+      <c r="F12" s="7">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>116.255</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
-        <v>43101</v>
-      </c>
-      <c r="C11" s="7">
-        <v>112</v>
-      </c>
-      <c r="D11" s="8">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>43282</v>
+      </c>
+      <c r="C13">
+        <v>196</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>110.72000000000001</v>
-      </c>
-      <c r="E11" s="8">
+        <v>170.01529999999997</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="F11" s="10">
+        <v>20.230349999999998</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
-        <v>110.4</v>
+        <v>158.87899999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
-        <v>43191</v>
-      </c>
-      <c r="C12" s="7">
-        <v>182</v>
-      </c>
-      <c r="D12" s="8">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>43374</v>
+      </c>
+      <c r="C14">
+        <v>126</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>127.21600000000001</v>
-      </c>
-      <c r="E12" s="8">
+        <v>170.97195499999998</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>16.240000000000002</v>
-      </c>
-      <c r="F12" s="10">
+        <v>-6.8387550000000026</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>113.52000000000001</v>
+        <v>190.24564999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
-        <v>43282</v>
-      </c>
-      <c r="C13" s="7">
-        <v>196</v>
-      </c>
-      <c r="D13" s="8">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>43466</v>
+      </c>
+      <c r="C15">
+        <v>157</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>153.96480000000003</v>
-      </c>
-      <c r="E13" s="8">
+        <v>161.99323999999999</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>15.792000000000003</v>
-      </c>
-      <c r="F13" s="10">
+        <v>4.5128714999999975</v>
+      </c>
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
-        <v>143.45600000000002</v>
+        <v>164.13319999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
-        <v>43374</v>
-      </c>
-      <c r="C14" s="7">
-        <v>126</v>
-      </c>
-      <c r="D14" s="8">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>43556</v>
+      </c>
+      <c r="C16">
+        <v>255</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>161.00544000000002</v>
-      </c>
-      <c r="E14" s="8">
+        <v>193.05427804999999</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>-1.366399999999997</v>
-      </c>
-      <c r="F14" s="10">
+        <v>32.559010049999998</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" si="2"/>
-        <v>169.75680000000003</v>
+        <v>166.50611149999997</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
-        <v>43466</v>
-      </c>
-      <c r="C15" s="7">
-        <v>157</v>
-      </c>
-      <c r="D15" s="8">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>43647</v>
+      </c>
+      <c r="C17">
+        <v>274</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>159.11123200000003</v>
-      </c>
-      <c r="E15" s="8">
+        <v>240.12930166999996</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>5.1068800000000021</v>
-      </c>
-      <c r="F15" s="10">
+        <v>28.491307034999995</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>159.63904000000002</v>
+        <v>225.61328809999998</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
-        <v>43556</v>
-      </c>
-      <c r="C16" s="7">
-        <v>255</v>
-      </c>
-      <c r="D16" s="8">
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12">
+        <v>43739</v>
+      </c>
+      <c r="C18" s="8">
+        <v>176</v>
+      </c>
+      <c r="D18" s="9">
         <f t="shared" si="1"/>
-        <v>182.37448960000003</v>
-      </c>
-      <c r="E16" s="8">
+        <v>240.83442609349993</v>
+      </c>
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
-        <v>23.685504000000002</v>
-      </c>
-      <c r="F16" s="10">
+        <v>-9.4560850755000025</v>
+      </c>
+      <c r="F18" s="10">
         <f t="shared" si="2"/>
-        <v>164.21811200000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
-        <v>43647</v>
-      </c>
-      <c r="C17" s="7">
-        <v>274</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="1"/>
-        <v>219.64799488000006</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>22.748403200000002</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="2"/>
-        <v>206.05999360000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
-        <v>43739</v>
-      </c>
-      <c r="C18" s="11">
-        <v>176</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="1"/>
-        <v>229.11711846400004</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.4012774399999977</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="2"/>
-        <v>242.39639808000007</v>
+        <v>268.62060870499994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5586,7 +5720,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5598,18 +5732,18 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5617,294 +5751,293 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>42736</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>80</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8">
+      <c r="D7" s="5"/>
+      <c r="F7" s="5">
         <f>C7-AVERAGE($C$7:$C$10)</f>
         <v>-30</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>42826</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>130</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <f t="shared" ref="F8:F10" si="0">C8-AVERAGE($C$7:$C$10)</f>
         <v>20</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>42917</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>140</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
         <v>43009</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>90</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <f>AVERAGE($C$7:$C$10)</f>
         <v>110</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>43101</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>112</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <f>$C$2*(C11-F7)+(1-$C$2)*(D10+E10)</f>
         <v>116.4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <f>$C$3*(D11-D10)+(1-$C$3)*E10</f>
         <v>1.2800000000000011</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <f>$C$4*(C11-D10-E10)+(1-$C$4)*F7</f>
         <v>-23.6</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <f>D10+E10+F7</f>
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>43191</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>182</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <f t="shared" ref="D12:D18" si="1">$C$2*(C12-F8)+(1-$C$2)*(D11+E11)</f>
         <v>126.54400000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <f t="shared" ref="E12:E18" si="2">$C$3*(D12-D11)+(1-$C$3)*E11</f>
         <v>3.0528000000000022</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <f t="shared" ref="F12:F18" si="3">$C$4*(C12-D11-E11)+(1-$C$4)*F8</f>
         <v>28.863999999999997</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <f t="shared" ref="G12:G18" si="4">D11+E11+F8</f>
         <v>137.68</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
         <v>43282</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>196</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
         <v>136.87744000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <f t="shared" si="2"/>
         <v>4.5089280000000009</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <f t="shared" si="3"/>
         <v>37.280639999999998</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <f t="shared" si="4"/>
         <v>159.5968</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
         <v>43374</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>126</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>142.30909439999999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <f t="shared" si="2"/>
         <v>4.6934732799999974</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <f t="shared" si="3"/>
         <v>-19.077273600000002</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <f t="shared" si="4"/>
         <v>121.386368</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
         <v>43466</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>157</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>153.722054144</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>6.0373705727999996</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <f t="shared" si="3"/>
         <v>-16.880513536000002</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <f t="shared" si="4"/>
         <v>123.40256768</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
         <v>43556</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>255</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>173.03473977344001</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <f t="shared" si="2"/>
         <v>8.6924335841280023</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>42.139315056640001</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <f t="shared" si="4"/>
         <v>188.6234247168</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
         <v>43647</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>274</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
         <v>192.72561068605441</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <f t="shared" si="2"/>
         <v>10.892121049825283</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <f t="shared" si="3"/>
         <v>48.279077328486395</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <f t="shared" si="4"/>
         <v>219.00781335756801</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12">
         <v>43739</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>176</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <f t="shared" si="1"/>
         <v>201.90964010870377</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <f t="shared" si="2"/>
         <v>10.550502724390098</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <f t="shared" si="3"/>
         <v>-20.785365227175941</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <f t="shared" si="4"/>
         <v>184.54045813587967</v>
       </c>
@@ -5918,11 +6051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373771F8-B76F-4360-8D0E-3D858755A08A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
